--- a/excel/V-Lookup/VLOOKUP-Practice-File.xlsx
+++ b/excel/V-Lookup/VLOOKUP-Practice-File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\DA\Weekly Projects\skills_practice\excel\V-Lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707223C-9B80-4BFD-A800-1337A5D4846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE205BC3-5BEA-48D2-AC9C-35255B457624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="15375" windowHeight="7875" firstSheet="9" activeTab="10" xr2:uid="{46C1B0D3-2082-4445-90E1-4B1E821349AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{46C1B0D3-2082-4445-90E1-4B1E821349AF}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="7" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="146">
   <si>
     <t>CLASSIC FAVORITES</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>alt + '=' for sum hotkey</t>
+  </si>
+  <si>
+    <t>alt + ' for style</t>
   </si>
 </sst>
 </file>
@@ -3262,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE135F81-A7E1-4DD3-855E-4A8D7026252F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,10 +3684,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA362D94-488B-4C9F-9C57-17ED5C2B40BB}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,12 +3699,12 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3746,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -3771,7 +3774,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -3827,22 +3830,25 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
